--- a/Project2/result.xlsx
+++ b/Project2/result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Yao.Lu@ibm.com/Documents/fraud_analytics/Team-5666666/Project2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rgeng/Desktop/git/Team-5666666/Project2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D75425-42ED-4442-B108-68EC5434DAB9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F545AF2C-4A53-D440-943D-92F4A84535DA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29260" yWindow="460" windowWidth="15860" windowHeight="18980" xr2:uid="{E5437932-A7E9-374E-91AC-0EE0FF765796}"/>
+    <workbookView xWindow="12300" yWindow="460" windowWidth="15860" windowHeight="15540" xr2:uid="{E5437932-A7E9-374E-91AC-0EE0FF765796}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -119,18 +119,18 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,7 +448,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F89FC2D5-8260-3740-AF53-75BE9AEEE2E7}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -456,11 +458,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
@@ -477,13 +479,13 @@
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="4">
         <v>0.77723577235772301</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="4">
         <v>0.797752808988764</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="4">
         <v>0.49142857142857099</v>
       </c>
     </row>
@@ -491,13 +493,13 @@
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="4">
         <v>0.98373983739837401</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="4">
         <v>0.87265917602996201</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="4">
         <v>0.56571428571428495</v>
       </c>
     </row>
@@ -505,24 +507,36 @@
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+      <c r="B5" s="2">
+        <v>0.8982</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.85370000000000001</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.41710000000000003</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.89319999999999999</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.65139999999999998</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
@@ -539,13 +553,13 @@
       <c r="A11" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="4">
         <v>0.88756871252194303</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="4">
         <v>0.90217372790952399</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="6">
         <v>0.81781552912960898</v>
       </c>
     </row>
@@ -553,13 +567,13 @@
       <c r="A12" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="4">
         <v>0.98300549088671696</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="4">
         <v>0.92655617170733795</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="4">
         <v>0.77182400890805003</v>
       </c>
     </row>
@@ -567,81 +581,105 @@
       <c r="A13" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
+      <c r="B13" s="2">
+        <v>0.93920000000000003</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.91649999999999998</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.69830000000000003</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
+      <c r="B14" s="2">
+        <v>0.94740000000000002</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.84770000000000001</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.59399999999999997</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3" t="s">
+      <c r="A17" s="1"/>
+      <c r="B17" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2" t="s">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="5">
         <v>0.952616977365767</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="5">
         <v>0.94939806591671605</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="5">
         <v>0.95089373404046296</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="5">
         <v>0.98387860743647804</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="5">
         <v>0.979317150187487</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="5">
         <v>0.96533097623256703</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
+      <c r="B21" s="3">
+        <v>0.97929999999999995</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.9698</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
+      <c r="B22" s="3">
+        <v>0.99870000000000003</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.99670000000000003</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.98550000000000004</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Project2/result.xlsx
+++ b/Project2/result.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rgeng/Desktop/git/Team-5666666/Project2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beizh\Desktop\Team-5666666\Project2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F545AF2C-4A53-D440-943D-92F4A84535DA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C8AC8B87-4EE5-4DD7-82ED-1BDDC3815139}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12300" yWindow="460" windowWidth="15860" windowHeight="15540" xr2:uid="{E5437932-A7E9-374E-91AC-0EE0FF765796}"/>
   </bookViews>
@@ -446,25 +446,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F89FC2D5-8260-3740-AF53-75BE9AEEE2E7}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -475,7 +475,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -489,7 +489,7 @@
         <v>0.49142857142857099</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -503,7 +503,7 @@
         <v>0.56571428571428495</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -517,7 +517,7 @@
         <v>0.41710000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -525,167 +525,167 @@
         <v>1</v>
       </c>
       <c r="C6" s="2">
-        <v>0.89319999999999999</v>
+        <v>0.89329999999999998</v>
       </c>
       <c r="D6" s="2">
         <v>0.65139999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="7" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
         <v>1</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C9" t="s">
         <v>2</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.88756871252194303</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.90217372790952399</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.81781552912960898</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0.98300549088671696</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.92655617170733795</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.77182400890805003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.93920000000000003</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.91649999999999998</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.69830000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.94740000000000002</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.84770000000000001</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.59399999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="1"/>
+      <c r="B15" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="4">
-        <v>0.88756871252194303</v>
-      </c>
-      <c r="C11" s="4">
-        <v>0.90217372790952399</v>
-      </c>
-      <c r="D11" s="6">
-        <v>0.81781552912960898</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="B17" s="5">
+        <v>0.952616977365767</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0.94939806591671605</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0.95089373404046296</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="4">
-        <v>0.98300549088671696</v>
-      </c>
-      <c r="C12" s="4">
-        <v>0.92655617170733795</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0.77182400890805003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="B18" s="5">
+        <v>0.98387860743647804</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0.979317150187487</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0.96533097623256703</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="2">
-        <v>0.93920000000000003</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0.91649999999999998</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0.69830000000000003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="B19" s="3">
+        <v>0.97929999999999995</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.9698</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="2">
-        <v>0.94740000000000002</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.84770000000000001</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0.59399999999999997</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="5">
-        <v>0.952616977365767</v>
-      </c>
-      <c r="C19" s="5">
-        <v>0.94939806591671605</v>
-      </c>
-      <c r="D19" s="5">
-        <v>0.95089373404046296</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="5">
-        <v>0.98387860743647804</v>
-      </c>
-      <c r="C20" s="5">
-        <v>0.979317150187487</v>
-      </c>
-      <c r="D20" s="5">
-        <v>0.96533097623256703</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="3">
-        <v>0.97929999999999995</v>
-      </c>
-      <c r="C21" s="3">
-        <v>0.97799999999999998</v>
-      </c>
-      <c r="D21" s="3">
-        <v>0.9698</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="3">
+      <c r="B20" s="3">
         <v>0.99870000000000003</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C20" s="3">
         <v>0.99670000000000003</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D20" s="3">
         <v>0.98550000000000004</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B15:D15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Project2/result.xlsx
+++ b/Project2/result.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beizh\Desktop\Team-5666666\Project2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Yao.Lu@ibm.com/Documents/fraud_analytics/Team-5666666/Project2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C8AC8B87-4EE5-4DD7-82ED-1BDDC3815139}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3077C94-B695-8349-A1B1-A47D647F4BAC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12300" yWindow="460" windowWidth="15860" windowHeight="15540" xr2:uid="{E5437932-A7E9-374E-91AC-0EE0FF765796}"/>
   </bookViews>
@@ -90,18 +90,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -117,20 +111,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -449,22 +441,22 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -475,7 +467,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -489,7 +481,7 @@
         <v>0.49142857142857099</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -497,48 +489,48 @@
         <v>0.98373983739837401</v>
       </c>
       <c r="C4" s="4">
-        <v>0.87265917602996201</v>
+        <v>0.82397003745318298</v>
       </c>
       <c r="D4" s="4">
-        <v>0.56571428571428495</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.57142857142857095</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="4">
         <v>0.8982</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="4">
         <v>0.85370000000000001</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="4">
         <v>0.41710000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="4">
         <v>1</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="4">
         <v>0.89329999999999998</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="4">
         <v>0.65139999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B8" s="7" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>1</v>
       </c>
@@ -549,7 +541,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -559,11 +551,11 @@
       <c r="C10" s="4">
         <v>0.90217372790952399</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>0.81781552912960898</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -571,49 +563,49 @@
         <v>0.98300549088671696</v>
       </c>
       <c r="C11" s="4">
-        <v>0.92655617170733795</v>
+        <v>0.93048077767797399</v>
       </c>
       <c r="D11" s="4">
-        <v>0.77182400890805003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.81256920155890799</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="4">
         <v>0.93920000000000003</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="4">
         <v>0.91649999999999998</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="4">
         <v>0.69830000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="4">
         <v>0.94740000000000002</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="4">
         <v>0.84770000000000001</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="4">
         <v>0.59399999999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
         <v>1</v>
@@ -625,59 +617,59 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="6">
         <v>0.952616977365767</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="6">
         <v>0.94939806591671605</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="6">
         <v>0.95089373404046296</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="6">
         <v>0.98387860743647804</v>
       </c>
-      <c r="C18" s="5">
-        <v>0.979317150187487</v>
-      </c>
-      <c r="D18" s="5">
-        <v>0.96533097623256703</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C18" s="6">
+        <v>0.94675350305900896</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0.94058141818896002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="6">
         <v>0.97929999999999995</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="6">
         <v>0.97799999999999998</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="6">
         <v>0.9698</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="6">
         <v>0.99870000000000003</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="6">
         <v>0.99670000000000003</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="6">
         <v>0.98550000000000004</v>
       </c>
     </row>
